--- a/approaches/our_data/our_ground_truth/GitLab Commit API/response_property_constraints.xlsx
+++ b/approaches/our_data/our_ground_truth/GitLab Commit API/response_property_constraints.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ThacSi\API-Testing\Eval\our_data\our_ground_truth\GitLab Commit API\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ThacSi\API-Testing\Eval\our_data\our_ground_truth_new\GitLab Commit API\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB2050E3-5BB8-44F2-8423-E349902E81D7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55DD0E29-C995-4ED2-96E9-E21B0950488A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-60" yWindow="-60" windowWidth="28920" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="720" yWindow="4935" windowWidth="23685" windowHeight="11805" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="response_property_constraints" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="44">
   <si>
     <t>operation</t>
   </si>
@@ -143,6 +143,18 @@
   </si>
   <si>
     <t>CommitStatus</t>
+  </si>
+  <si>
+    <t>X509Issuer</t>
+  </si>
+  <si>
+    <t>crl_url</t>
+  </si>
+  <si>
+    <t>{ "type": "string" }</t>
+  </si>
+  <si>
+    <t>ssh_url_to_repo</t>
   </si>
 </sst>
 </file>
@@ -983,10 +995,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D35"/>
+  <dimension ref="A1:D39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="C42" sqref="C42:C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1486,9 +1498,65 @@
         <v>7</v>
       </c>
     </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>29</v>
+      </c>
+      <c r="B36" t="s">
+        <v>40</v>
+      </c>
+      <c r="C36" t="s">
+        <v>41</v>
+      </c>
+      <c r="D36" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>18</v>
+      </c>
+      <c r="B37" t="s">
+        <v>35</v>
+      </c>
+      <c r="C37" t="s">
+        <v>15</v>
+      </c>
+      <c r="D37" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>4</v>
+      </c>
+      <c r="B38" t="s">
+        <v>35</v>
+      </c>
+      <c r="C38" t="s">
+        <v>43</v>
+      </c>
+      <c r="D38" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>18</v>
+      </c>
+      <c r="B39" t="s">
+        <v>35</v>
+      </c>
+      <c r="C39" t="s">
+        <v>43</v>
+      </c>
+      <c r="D39" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D35" xr:uid="{FDD59A86-C642-49E9-B18F-98275CAB8CB7}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D43">
+  <autoFilter ref="A1:D39" xr:uid="{FDD59A86-C642-49E9-B18F-98275CAB8CB7}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D42">
     <sortCondition ref="A2"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
